--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Gdf9</t>
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H2">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I2">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J2">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N2">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q2">
-        <v>8.099014739439111</v>
+        <v>7.884435183389223</v>
       </c>
       <c r="R2">
-        <v>72.891132654952</v>
+        <v>70.959916650503</v>
       </c>
       <c r="S2">
-        <v>0.02218835503438572</v>
+        <v>0.02096117994063109</v>
       </c>
       <c r="T2">
-        <v>0.02218835503438572</v>
+        <v>0.02096117994063109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H3">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I3">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J3">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>102.577454</v>
       </c>
       <c r="O3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q3">
-        <v>54.06456408519912</v>
+        <v>55.13915409580822</v>
       </c>
       <c r="R3">
-        <v>486.581076766792</v>
+        <v>496.2523868622739</v>
       </c>
       <c r="S3">
-        <v>0.1481172440469931</v>
+        <v>0.1465903015109314</v>
       </c>
       <c r="T3">
-        <v>0.1481172440469931</v>
+        <v>0.1465903015109314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H4">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I4">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J4">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N4">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q4">
-        <v>0.8802048609666667</v>
+        <v>0.1036671928151111</v>
       </c>
       <c r="R4">
-        <v>7.9218437487</v>
+        <v>0.9330047353359999</v>
       </c>
       <c r="S4">
-        <v>0.002411441216795843</v>
+        <v>0.0002756046098413808</v>
       </c>
       <c r="T4">
-        <v>0.002411441216795843</v>
+        <v>0.0002756046098413808</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H5">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I5">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J5">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N5">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q5">
-        <v>19.060799699384</v>
+        <v>19.43664237490567</v>
       </c>
       <c r="R5">
-        <v>171.547197294456</v>
+        <v>174.929781374151</v>
       </c>
       <c r="S5">
-        <v>0.05221965937532472</v>
+        <v>0.05167332203078121</v>
       </c>
       <c r="T5">
-        <v>0.05221965937532472</v>
+        <v>0.05167332203078122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H6">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I6">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J6">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N6">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O6">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P6">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q6">
-        <v>2.341522286160445</v>
+        <v>0.1695735020648889</v>
       </c>
       <c r="R6">
-        <v>21.073700575444</v>
+        <v>1.526161518584</v>
       </c>
       <c r="S6">
-        <v>0.006414919527588427</v>
+        <v>0.0004508199518760181</v>
       </c>
       <c r="T6">
-        <v>0.006414919527588427</v>
+        <v>0.0004508199518760181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>13.129937</v>
       </c>
       <c r="I7">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J7">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N7">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O7">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P7">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q7">
-        <v>22.41772472649311</v>
+        <v>21.39846084712011</v>
       </c>
       <c r="R7">
-        <v>201.759522538438</v>
+        <v>192.586147624081</v>
       </c>
       <c r="S7">
-        <v>0.06141641314373066</v>
+        <v>0.05688891820862488</v>
       </c>
       <c r="T7">
-        <v>0.06141641314373067</v>
+        <v>0.05688891820862488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>13.129937</v>
       </c>
       <c r="I8">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J8">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>102.577454</v>
       </c>
       <c r="O8">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P8">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q8">
         <v>149.6483898489331</v>
@@ -948,10 +948,10 @@
         <v>1346.835508640398</v>
       </c>
       <c r="S8">
-        <v>0.4099821658704928</v>
+        <v>0.3978480074334002</v>
       </c>
       <c r="T8">
-        <v>0.4099821658704929</v>
+        <v>0.3978480074334002</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,40 +980,40 @@
         <v>13.129937</v>
       </c>
       <c r="I9">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J9">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N9">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O9">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P9">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q9">
-        <v>2.436369226491667</v>
+        <v>0.2813541255635555</v>
       </c>
       <c r="R9">
-        <v>21.927323038425</v>
+        <v>2.532187130072</v>
       </c>
       <c r="S9">
-        <v>0.006674765651308422</v>
+        <v>0.0007479945380743788</v>
       </c>
       <c r="T9">
-        <v>0.006674765651308423</v>
+        <v>0.0007479945380743788</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>13.129937</v>
       </c>
       <c r="I10">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J10">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N10">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O10">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P10">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q10">
-        <v>52.759474389746</v>
+        <v>52.75130319228633</v>
       </c>
       <c r="R10">
-        <v>474.835269507714</v>
+        <v>474.761728730577</v>
       </c>
       <c r="S10">
-        <v>0.1445417729006796</v>
+        <v>0.1402420760139966</v>
       </c>
       <c r="T10">
-        <v>0.1445417729006796</v>
+        <v>0.1402420760139967</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,40 +1104,40 @@
         <v>13.129937</v>
       </c>
       <c r="I11">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J11">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N11">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O11">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P11">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q11">
-        <v>6.481233056223444</v>
+        <v>0.4602247161964444</v>
       </c>
       <c r="R11">
-        <v>58.331097506011</v>
+        <v>4.142022445768</v>
       </c>
       <c r="S11">
-        <v>0.0177562215576412</v>
+        <v>0.001223531282195502</v>
       </c>
       <c r="T11">
-        <v>0.0177562215576412</v>
+        <v>0.001223531282195502</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H12">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I12">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J12">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N12">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O12">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P12">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q12">
-        <v>1.950327506078222</v>
+        <v>0.7097592238487779</v>
       </c>
       <c r="R12">
-        <v>17.552947554704</v>
+        <v>6.387833014639</v>
       </c>
       <c r="S12">
-        <v>0.005343188095147064</v>
+        <v>0.001886931715408136</v>
       </c>
       <c r="T12">
-        <v>0.005343188095147064</v>
+        <v>0.001886931715408136</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H13">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I13">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J13">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>102.577454</v>
       </c>
       <c r="O13">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P13">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q13">
-        <v>13.01931282159823</v>
+        <v>4.963643216595778</v>
       </c>
       <c r="R13">
-        <v>117.173815394384</v>
+        <v>44.67278894936199</v>
       </c>
       <c r="S13">
-        <v>0.03566818242503376</v>
+        <v>0.0131961029806364</v>
       </c>
       <c r="T13">
-        <v>0.03566818242503376</v>
+        <v>0.01319610298063639</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H14">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I14">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J14">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N14">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O14">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P14">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q14">
-        <v>0.2119625419333334</v>
+        <v>0.009332151840888888</v>
       </c>
       <c r="R14">
-        <v>1.9076628774</v>
+        <v>0.08398936656799999</v>
       </c>
       <c r="S14">
-        <v>0.0005807002809249584</v>
+        <v>2.481000977499025E-05</v>
       </c>
       <c r="T14">
-        <v>0.0005807002809249584</v>
+        <v>2.481000977499025E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H15">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I15">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J15">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N15">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O15">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P15">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q15">
-        <v>4.590040040368</v>
+        <v>1.749692385740333</v>
       </c>
       <c r="R15">
-        <v>41.310360363312</v>
+        <v>15.747231471663</v>
       </c>
       <c r="S15">
-        <v>0.01257504046038871</v>
+        <v>0.004651647972897629</v>
       </c>
       <c r="T15">
-        <v>0.01257504046038871</v>
+        <v>0.00465164797289763</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H16">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I16">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J16">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N16">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O16">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P16">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q16">
-        <v>0.5638630707208889</v>
+        <v>0.01526505759911111</v>
       </c>
       <c r="R16">
-        <v>5.074767636488</v>
+        <v>0.137385518392</v>
       </c>
       <c r="S16">
-        <v>0.001544779754876761</v>
+        <v>4.058294750309829E-05</v>
       </c>
       <c r="T16">
-        <v>0.001544779754876761</v>
+        <v>4.058294750309829E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H17">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I17">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J17">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N17">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O17">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P17">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q17">
-        <v>2.540316021058445</v>
+        <v>3.087848570505889</v>
       </c>
       <c r="R17">
-        <v>22.862844189526</v>
+        <v>27.790637134553</v>
       </c>
       <c r="S17">
-        <v>0.006959542066308964</v>
+        <v>0.00820920560703647</v>
       </c>
       <c r="T17">
-        <v>0.006959542066308965</v>
+        <v>0.00820920560703647</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H18">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I18">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J18">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>102.577454</v>
       </c>
       <c r="O18">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P18">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q18">
-        <v>16.95775137293845</v>
+        <v>21.59461701357489</v>
       </c>
       <c r="R18">
-        <v>152.619762356446</v>
+        <v>194.351553122174</v>
       </c>
       <c r="S18">
-        <v>0.0464580717720311</v>
+        <v>0.05741040955275888</v>
       </c>
       <c r="T18">
-        <v>0.04645807177203112</v>
+        <v>0.05741040955275886</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H19">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I19">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J19">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N19">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O19">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P19">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q19">
-        <v>0.2760827806916667</v>
+        <v>0.04060006654844445</v>
       </c>
       <c r="R19">
-        <v>2.484745026225</v>
+        <v>0.365400598936</v>
       </c>
       <c r="S19">
-        <v>0.0007563664166502539</v>
+        <v>0.0001079373830501473</v>
       </c>
       <c r="T19">
-        <v>0.000756366416650254</v>
+        <v>0.0001079373830501473</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H20">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I20">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J20">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N20">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O20">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P20">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q20">
-        <v>5.978561147042</v>
+        <v>7.612137962555667</v>
       </c>
       <c r="R20">
-        <v>53.807050323378</v>
+        <v>68.50924166300101</v>
       </c>
       <c r="S20">
-        <v>0.01637908333212134</v>
+        <v>0.02023726365360894</v>
       </c>
       <c r="T20">
-        <v>0.01637908333212134</v>
+        <v>0.02023726365360894</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,46 +1718,356 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H21">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I21">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J21">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1051546666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.315464</v>
+      </c>
+      <c r="O21">
+        <v>0.002049635984690702</v>
+      </c>
+      <c r="P21">
+        <v>0.002049635984690701</v>
+      </c>
+      <c r="Q21">
+        <v>0.06641151633155556</v>
+      </c>
+      <c r="R21">
+        <v>0.597703646984</v>
+      </c>
+      <c r="S21">
+        <v>0.000176558461269194</v>
+      </c>
+      <c r="T21">
+        <v>0.000176558461269194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H22">
+        <v>1.697065</v>
+      </c>
+      <c r="I22">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J22">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K22">
         <v>3</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.480867666666667</v>
-      </c>
-      <c r="N21">
-        <v>4.442603</v>
-      </c>
-      <c r="O21">
-        <v>0.02772800791168296</v>
-      </c>
-      <c r="P21">
-        <v>0.02772800791168296</v>
-      </c>
-      <c r="Q21">
-        <v>0.7344358256607778</v>
-      </c>
-      <c r="R21">
-        <v>6.609922430947</v>
-      </c>
-      <c r="S21">
-        <v>0.002012087071576574</v>
-      </c>
-      <c r="T21">
-        <v>0.002012087071576574</v>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.889237666666667</v>
+      </c>
+      <c r="N22">
+        <v>14.667713</v>
+      </c>
+      <c r="O22">
+        <v>0.09529921759032918</v>
+      </c>
+      <c r="P22">
+        <v>0.09529921759032917</v>
+      </c>
+      <c r="Q22">
+        <v>2.765784706927222</v>
+      </c>
+      <c r="R22">
+        <v>24.892062362345</v>
+      </c>
+      <c r="S22">
+        <v>0.007352982118628595</v>
+      </c>
+      <c r="T22">
+        <v>0.007352982118628595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H23">
+        <v>1.697065</v>
+      </c>
+      <c r="I23">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J23">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>34.19248466666667</v>
+      </c>
+      <c r="N23">
+        <v>102.577454</v>
+      </c>
+      <c r="O23">
+        <v>0.6664673019309815</v>
+      </c>
+      <c r="P23">
+        <v>0.6664673019309812</v>
+      </c>
+      <c r="Q23">
+        <v>19.34228966361222</v>
+      </c>
+      <c r="R23">
+        <v>174.08060697251</v>
+      </c>
+      <c r="S23">
+        <v>0.05142248045325452</v>
+      </c>
+      <c r="T23">
+        <v>0.05142248045325451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H24">
+        <v>1.697065</v>
+      </c>
+      <c r="I24">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J24">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.06428533333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.192856</v>
+      </c>
+      <c r="O24">
+        <v>0.001253026010776221</v>
+      </c>
+      <c r="P24">
+        <v>0.001253026010776221</v>
+      </c>
+      <c r="Q24">
+        <v>0.0363654630711111</v>
+      </c>
+      <c r="R24">
+        <v>0.32728916764</v>
+      </c>
+      <c r="S24">
+        <v>9.667947003532428E-05</v>
+      </c>
+      <c r="T24">
+        <v>9.667947003532428E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H25">
+        <v>1.697065</v>
+      </c>
+      <c r="I25">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J25">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.052907</v>
+      </c>
+      <c r="N25">
+        <v>36.158721</v>
+      </c>
+      <c r="O25">
+        <v>0.2349308184832226</v>
+      </c>
+      <c r="P25">
+        <v>0.2349308184832226</v>
+      </c>
+      <c r="Q25">
+        <v>6.818188872651665</v>
+      </c>
+      <c r="R25">
+        <v>61.36369985386499</v>
+      </c>
+      <c r="S25">
+        <v>0.01812650881193818</v>
+      </c>
+      <c r="T25">
+        <v>0.01812650881193819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H26">
+        <v>1.697065</v>
+      </c>
+      <c r="I26">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J26">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.1051546666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.315464</v>
+      </c>
+      <c r="O26">
+        <v>0.002049635984690702</v>
+      </c>
+      <c r="P26">
+        <v>0.002049635984690701</v>
+      </c>
+      <c r="Q26">
+        <v>0.05948476812888889</v>
+      </c>
+      <c r="R26">
+        <v>0.53536291316</v>
+      </c>
+      <c r="S26">
+        <v>0.0001581433418468885</v>
+      </c>
+      <c r="T26">
+        <v>0.0001581433418468885</v>
       </c>
     </row>
   </sheetData>
